--- a/files_for_files/conv_dictionary.xlsx
+++ b/files_for_files/conv_dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18192" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="dict" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>parsed_name</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>д. 23</t>
+  </si>
+  <si>
+    <t>9-я Северная линия, дом 25, корпус 3, этаж 3, квартира 7</t>
+  </si>
+  <si>
+    <t>ул. 9-я Северная линия, дом 25, корпус 3, этаж 3, квартира 7</t>
+  </si>
+  <si>
+    <t>Эдальго</t>
+  </si>
+  <si>
+    <t>"Эдальго"</t>
   </si>
 </sst>
 </file>
@@ -549,19 +561,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="70.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -577,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -585,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -593,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -601,7 +613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -609,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -617,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -633,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -641,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -649,7 +661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -657,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -665,7 +677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -673,7 +685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -681,7 +693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -689,7 +701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -697,7 +709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -705,7 +717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -713,7 +725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -721,7 +733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -729,7 +741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -737,7 +749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -745,7 +757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -753,7 +765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -761,7 +773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -769,7 +781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -777,7 +789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -785,12 +797,28 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
